--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>43538</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>44022</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44163</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>44497</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44727</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44959</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45090</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>45098</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>45160</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43353</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>43385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43413</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43413</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43419</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43423</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43490</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43514</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>43525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>43551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43560</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43578</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43580</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43581</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43587</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43612</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43613</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43644</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43644</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43647</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43650</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43651</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43663</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43677</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43686</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43690</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43693</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43696</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43696</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43696</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43697</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43700</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>43713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43733</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43735</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43745</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43746</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43755</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43755</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43756</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43759</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43759</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43763</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43767</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43782</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43782</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43784</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43784</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43788</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43790</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43793</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43795</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43796</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43801</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43812</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43843</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43845</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43857</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43859</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43864</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>43866</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43878</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43896</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43901</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43916</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43917</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43951</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43951</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43951</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43955</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43962</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43965</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43966</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43976</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43978</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43978</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43984</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43985</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43992</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44015</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44025</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44029</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44036</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44036</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44050</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44057</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44060</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44061</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44068</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44075</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44084</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44099</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44102</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44106</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44110</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44112</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44116</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44122</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44122</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44123</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44124</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44126</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44127</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44131</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44132</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>44137</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44137</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44147</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44152</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>44160</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44163</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44163</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44163</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44165</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44165</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44167</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44172</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44175</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44175</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44183</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44186</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44194</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44200</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44236</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44237</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44239</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44239</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44245</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44245</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44263</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44277</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44277</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44298</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44298</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44302</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44307</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44321</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44331</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44339</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44340</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44377</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44377</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44379</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44384</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44386</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44413</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44435</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44435</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44435</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44455</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44473</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44473</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44475</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44475</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44476</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44487</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44488</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44497</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44516</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44516</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44524</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44532</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44532</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44535</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44571</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44571</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44571</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44574</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44574</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44580</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44580</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44580</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44580</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44588</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44588</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44612</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44622</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44641</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44641</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44644</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44645</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44677</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44683</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44697</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44697</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44699</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44721</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44725</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44774</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44774</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44774</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44781</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44781</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>44784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44789</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44790</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44795</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44797</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44798</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44805</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44810</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44812</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44823</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44838</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44839</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44844</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44844</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44853</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44853</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44855</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44860</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>44865</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>44867</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>44868</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44876</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44880</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44883</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44890</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44894</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44895</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44900</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44901</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44901</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44901</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44911</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44914</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44919</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44936</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44938</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44951</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44951</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44952</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44958</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44958</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44960</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44960</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44973</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44977</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44977</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44980</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45001</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45002</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>45002</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>45005</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45005</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45007</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45008</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45009</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45013</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45013</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>45019</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45020</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45020</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45029</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45029</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45030</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45030</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45030</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45033</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45040</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45041</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45042</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45042</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45042</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45048</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45049</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45051</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45063</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>45069</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45070</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>45075</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45076</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45076</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45076</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>45079</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45079</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45079</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45084</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45089</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45089</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45090</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45090</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45090</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45090</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45091</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45106</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>45108</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45111</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45119</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45120</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45124</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45124</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45131</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45133</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45135</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28597,7 +28597,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>45153</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45153</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45160</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45160</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45160</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45162</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45166</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -646,27 +646,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 63229-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 63229-2020.xlsx", "A 63229-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 63229-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 63229-2020.png", "A 63229-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 63229-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 63229-2020.docx", "A 63229-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 63229-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 63229-2020.docx", "A 63229-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 63229-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 63229-2020.docx", "A 63229-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 63229-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 63229-2020.docx", "A 63229-2020")</f>
         <v/>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,27 +742,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 10649-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 10649-2023.xlsx", "A 10649-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 10649-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 10649-2023.png", "A 10649-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 10649-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 10649-2023.docx", "A 10649-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 10649-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 10649-2023.docx", "A 10649-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 10649-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 10649-2023.docx", "A 10649-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 10649-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 10649-2023.docx", "A 10649-2023")</f>
         <v/>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,27 +838,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 39514-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 39514-2023.xlsx", "A 39514-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 39514-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 39514-2023.png", "A 39514-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 39514-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 39514-2023.docx", "A 39514-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 39514-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 39514-2023.docx", "A 39514-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 39514-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 39514-2023.docx", "A 39514-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 39514-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 39514-2023.docx", "A 39514-2023")</f>
         <v/>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,27 +929,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 14137-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 14137-2020.xlsx", "A 14137-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 14137-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 14137-2020.png", "A 14137-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 14137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 14137-2020.docx", "A 14137-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 14137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 14137-2020.docx", "A 14137-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 14137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 14137-2020.docx", "A 14137-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 14137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 14137-2020.docx", "A 14137-2020")</f>
         <v/>
       </c>
     </row>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,27 +1025,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 35580-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 35580-2023.xlsx", "A 35580-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 35580-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 35580-2023.png", "A 35580-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 35580-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 35580-2023.docx", "A 35580-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 35580-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 35580-2023.docx", "A 35580-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 35580-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 35580-2023.docx", "A 35580-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 35580-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 35580-2023.docx", "A 35580-2023")</f>
         <v/>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,31 +1113,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 45968-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 45968-2020.xlsx", "A 45968-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 45968-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 45968-2020.png", "A 45968-2020")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/knärot/A 45968-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/knärot/A 45968-2020.png", "A 45968-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 45968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 45968-2020.docx", "A 45968-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 45968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 45968-2020.docx", "A 45968-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 45968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 45968-2020.docx", "A 45968-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 45968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 45968-2020.docx", "A 45968-2020")</f>
         <v/>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,27 +1210,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 32211-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 32211-2023.xlsx", "A 32211-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 32211-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 32211-2023.png", "A 32211-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 32211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 32211-2023.docx", "A 32211-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 32211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 32211-2023.docx", "A 32211-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 32211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 32211-2023.docx", "A 32211-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 32211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 32211-2023.docx", "A 32211-2023")</f>
         <v/>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,31 +1303,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 35626-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 35626-2023.xlsx", "A 35626-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 35626-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 35626-2023.png", "A 35626-2023")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/knärot/A 35626-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/knärot/A 35626-2023.png", "A 35626-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 35626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 35626-2023.docx", "A 35626-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 35626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 35626-2023.docx", "A 35626-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 35626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 35626-2023.docx", "A 35626-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 35626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 35626-2023.docx", "A 35626-2023")</f>
         <v/>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,27 +1395,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 40122-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 40122-2023.xlsx", "A 40122-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 40122-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 40122-2023.png", "A 40122-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 40122-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 40122-2023.docx", "A 40122-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 40122-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 40122-2023.docx", "A 40122-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 40122-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 40122-2023.docx", "A 40122-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 40122-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 40122-2023.docx", "A 40122-2023")</f>
         <v/>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,27 +1487,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 56275-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 56275-2018.xlsx", "A 56275-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 56275-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 56275-2018.png", "A 56275-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 56275-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 56275-2018.docx", "A 56275-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 56275-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 56275-2018.docx", "A 56275-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 56275-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 56275-2018.docx", "A 56275-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 56275-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 56275-2018.docx", "A 56275-2018")</f>
         <v/>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,27 +1579,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 40098-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 40098-2020.xlsx", "A 40098-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 40098-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 40098-2020.png", "A 40098-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 40098-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 40098-2020.docx", "A 40098-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 40098-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 40098-2020.docx", "A 40098-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 40098-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 40098-2020.docx", "A 40098-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 40098-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 40098-2020.docx", "A 40098-2020")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,27 +1671,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 23338-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 23338-2023.xlsx", "A 23338-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 23338-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 23338-2023.png", "A 23338-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 23338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 23338-2023.docx", "A 23338-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 23338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 23338-2023.docx", "A 23338-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 23338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 23338-2023.docx", "A 23338-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 23338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 23338-2023.docx", "A 23338-2023")</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1762,27 +1762,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 46738-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 46738-2018.xlsx", "A 46738-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 46738-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 46738-2018.png", "A 46738-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 46738-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 46738-2018.docx", "A 46738-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 46738-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 46738-2018.docx", "A 46738-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 46738-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 46738-2018.docx", "A 46738-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 46738-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 46738-2018.docx", "A 46738-2018")</f>
         <v/>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,27 +1848,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 51539-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 51539-2019.xlsx", "A 51539-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 51539-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 51539-2019.png", "A 51539-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 51539-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 51539-2019.docx", "A 51539-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 51539-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 51539-2019.docx", "A 51539-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 51539-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 51539-2019.docx", "A 51539-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 51539-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 51539-2019.docx", "A 51539-2019")</f>
         <v/>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1939,27 +1939,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 63400-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 63400-2019.xlsx", "A 63400-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 63400-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 63400-2019.png", "A 63400-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 63400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 63400-2019.docx", "A 63400-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 63400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 63400-2019.docx", "A 63400-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 63400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 63400-2019.docx", "A 63400-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 63400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 63400-2019.docx", "A 63400-2019")</f>
         <v/>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,27 +2030,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 54504-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 54504-2020.xlsx", "A 54504-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 54504-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 54504-2020.png", "A 54504-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 54504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 54504-2020.docx", "A 54504-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 54504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 54504-2020.docx", "A 54504-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 54504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 54504-2020.docx", "A 54504-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 54504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 54504-2020.docx", "A 54504-2020")</f>
         <v/>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,27 +2116,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 469-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 469-2023.xlsx", "A 469-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 469-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 469-2023.png", "A 469-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 469-2023.docx", "A 469-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 469-2023.docx", "A 469-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 469-2023.docx", "A 469-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 469-2023.docx", "A 469-2023")</f>
         <v/>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,27 +2202,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 26029-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 26029-2023.xlsx", "A 26029-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 26029-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 26029-2023.png", "A 26029-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 26029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 26029-2023.docx", "A 26029-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 26029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 26029-2023.docx", "A 26029-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 26029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 26029-2023.docx", "A 26029-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 26029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 26029-2023.docx", "A 26029-2023")</f>
         <v/>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,27 +2293,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 36561-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 36561-2023.xlsx", "A 36561-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 36561-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 36561-2023.png", "A 36561-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 36561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 36561-2023.docx", "A 36561-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 36561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 36561-2023.docx", "A 36561-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 36561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 36561-2023.docx", "A 36561-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 36561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 36561-2023.docx", "A 36561-2023")</f>
         <v/>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,27 +2384,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 39826-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 39826-2023.xlsx", "A 39826-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 39826-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 39826-2023.png", "A 39826-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 39826-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 39826-2023.docx", "A 39826-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 39826-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 39826-2023.docx", "A 39826-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 39826-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 39826-2023.docx", "A 39826-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 39826-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 39826-2023.docx", "A 39826-2023")</f>
         <v/>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>45182</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2470,27 +2470,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 43094-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 43094-2023.xlsx", "A 43094-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 43094-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 43094-2023.png", "A 43094-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 43094-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 43094-2023.docx", "A 43094-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 43094-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 43094-2023.docx", "A 43094-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 43094-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 43094-2023.docx", "A 43094-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 43094-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 43094-2023.docx", "A 43094-2023")</f>
         <v/>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>43538</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2555,27 +2555,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 14821-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 14821-2019.xlsx", "A 14821-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 14821-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 14821-2019.png", "A 14821-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 14821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 14821-2019.docx", "A 14821-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 14821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 14821-2019.docx", "A 14821-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 14821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 14821-2019.docx", "A 14821-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 14821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 14821-2019.docx", "A 14821-2019")</f>
         <v/>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
         <v>44022</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,27 +2645,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 33236-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 33236-2020.xlsx", "A 33236-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 33236-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 33236-2020.png", "A 33236-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 33236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 33236-2020.docx", "A 33236-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 33236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 33236-2020.docx", "A 33236-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 33236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 33236-2020.docx", "A 33236-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 33236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 33236-2020.docx", "A 33236-2020")</f>
         <v/>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>44163</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2735,27 +2735,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 63236-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 63236-2020.xlsx", "A 63236-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 63236-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 63236-2020.png", "A 63236-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 63236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 63236-2020.docx", "A 63236-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 63236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 63236-2020.docx", "A 63236-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 63236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 63236-2020.docx", "A 63236-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 63236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 63236-2020.docx", "A 63236-2020")</f>
         <v/>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>44497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2820,27 +2820,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 60833-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 60833-2021.xlsx", "A 60833-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 60833-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 60833-2021.png", "A 60833-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 60833-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 60833-2021.docx", "A 60833-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 60833-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 60833-2021.docx", "A 60833-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 60833-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 60833-2021.docx", "A 60833-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 60833-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 60833-2021.docx", "A 60833-2021")</f>
         <v/>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2905,27 +2905,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 24807-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 24807-2022.xlsx", "A 24807-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 24807-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 24807-2022.png", "A 24807-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 24807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 24807-2022.docx", "A 24807-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 24807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 24807-2022.docx", "A 24807-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 24807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 24807-2022.docx", "A 24807-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 24807-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 24807-2022.docx", "A 24807-2022")</f>
         <v/>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>44839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2995,27 +2995,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 44222-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 44222-2022.xlsx", "A 44222-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 44222-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 44222-2022.png", "A 44222-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 44222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 44222-2022.docx", "A 44222-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 44222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 44222-2022.docx", "A 44222-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 44222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 44222-2022.docx", "A 44222-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 44222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 44222-2022.docx", "A 44222-2022")</f>
         <v/>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,27 +3080,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 44990-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 44990-2022.xlsx", "A 44990-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 44990-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 44990-2022.png", "A 44990-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 44990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 44990-2022.docx", "A 44990-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 44990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 44990-2022.docx", "A 44990-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 44990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 44990-2022.docx", "A 44990-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 44990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 44990-2022.docx", "A 44990-2022")</f>
         <v/>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,27 +3165,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 51095-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 51095-2022.xlsx", "A 51095-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 51095-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 51095-2022.png", "A 51095-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 51095-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 51095-2022.docx", "A 51095-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 51095-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 51095-2022.docx", "A 51095-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 51095-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 51095-2022.docx", "A 51095-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 51095-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 51095-2022.docx", "A 51095-2022")</f>
         <v/>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3255,27 +3255,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 5376-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 5376-2023.xlsx", "A 5376-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 5376-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 5376-2023.png", "A 5376-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 5376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 5376-2023.docx", "A 5376-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 5376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 5376-2023.docx", "A 5376-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 5376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 5376-2023.docx", "A 5376-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 5376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 5376-2023.docx", "A 5376-2023")</f>
         <v/>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>45090</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,27 +3340,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 25716-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 25716-2023.xlsx", "A 25716-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 25716-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 25716-2023.png", "A 25716-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 25716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 25716-2023.docx", "A 25716-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 25716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 25716-2023.docx", "A 25716-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 25716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 25716-2023.docx", "A 25716-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 25716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 25716-2023.docx", "A 25716-2023")</f>
         <v/>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
         <v>45098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,27 +3425,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 29774-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 29774-2023.xlsx", "A 29774-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 29774-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 29774-2023.png", "A 29774-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 29774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 29774-2023.docx", "A 29774-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 29774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 29774-2023.docx", "A 29774-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 29774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 29774-2023.docx", "A 29774-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 29774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 29774-2023.docx", "A 29774-2023")</f>
         <v/>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
         <v>45160</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3510,27 +3510,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 37847-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 37847-2023.xlsx", "A 37847-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 37847-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 37847-2023.png", "A 37847-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 37847-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 37847-2023.docx", "A 37847-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 37847-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 37847-2023.docx", "A 37847-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 37847-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 37847-2023.docx", "A 37847-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 37847-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 37847-2023.docx", "A 37847-2023")</f>
         <v/>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>45182</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3600,27 +3600,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 42891-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 42891-2023.xlsx", "A 42891-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 42891-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 42891-2023.png", "A 42891-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 42891-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 42891-2023.docx", "A 42891-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 42891-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 42891-2023.docx", "A 42891-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 42891-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 42891-2023.docx", "A 42891-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 42891-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 42891-2023.docx", "A 42891-2023")</f>
         <v/>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
         <v>45182</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3685,27 +3685,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 43097-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 43097-2023.xlsx", "A 43097-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 43097-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 43097-2023.png", "A 43097-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 43097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 43097-2023.docx", "A 43097-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 43097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 43097-2023.docx", "A 43097-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 43097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 43097-2023.docx", "A 43097-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 43097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 43097-2023.docx", "A 43097-2023")</f>
         <v/>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3770,27 +3770,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 43098-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/artfynd/A 43098-2023.xlsx", "A 43098-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 43098-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/kartor/A 43098-2023.png", "A 43098-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 43098-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomål/A 43098-2023.docx", "A 43098-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 43098-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/klagomålsmail/A 43098-2023.docx", "A 43098-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 43098-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsyn/A 43098-2023.docx", "A 43098-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 43098-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ROBERTSFORS/tillsynsmail/A 43098-2023.docx", "A 43098-2023")</f>
         <v/>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43377</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43409</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43469</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43490</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43493</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43501</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43503</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43504</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43514</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43517</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43522</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43525</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43578</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43580</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43581</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43608</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43613</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43614</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43644</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43647</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43650</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43663</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43677</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43683</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43693</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43705</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43732</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43756</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43759</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43763</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43767</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43781</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43784</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43784</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43793</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43795</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43797</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43801</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43812</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43816</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43845</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43861</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43866</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43882</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43896</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43901</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43916</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43917</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43951</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43962</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>43965</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43978</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43978</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43980</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43985</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43992</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44006</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44011</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44013</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44014</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44015</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44019</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44029</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44036</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44036</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44050</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44050</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44055</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44057</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44060</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44061</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44068</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44075</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44084</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44089</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44099</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44102</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44106</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44106</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44110</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44116</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44116</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44122</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44122</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44123</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44132</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44147</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44152</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44160</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44091</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>45169</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43399</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44068</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>43364</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43787</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44126</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44929</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45091</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45153</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45168</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45182</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43538</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44022</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44163</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44497</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>44959</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45090</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>45160</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         <v>45182</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>45182</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43377</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43385</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43409</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43413</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43424</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43469</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43472</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43490</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43493</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43501</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43503</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43504</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43514</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43517</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43522</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43525</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43578</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43580</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43581</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43608</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43613</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43614</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43644</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43644</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43647</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43650</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43663</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43677</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43683</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43689</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43690</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43692</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43693</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43705</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43732</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43745</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43749</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43756</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43759</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43763</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43767</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43769</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43781</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43784</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43784</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43793</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>43795</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43797</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43801</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43812</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43816</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43845</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43861</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43864</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43866</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43882</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43896</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43901</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43916</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43917</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43951</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43955</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43962</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>43965</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43978</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43978</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43980</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43984</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43985</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43992</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44006</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44011</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44013</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44013</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44014</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44015</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44019</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44025</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44029</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44036</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44036</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44050</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44050</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44055</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44057</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44060</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44061</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44068</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44075</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44078</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44084</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44089</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44099</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44102</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44106</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44106</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44110</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44116</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44116</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44122</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44122</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44123</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44132</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44132</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44147</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44152</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44160</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44161</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44163</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44163</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25059,7 +25059,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28524,7 +28524,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29813,7 +29813,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y487"/>
+  <dimension ref="A1:Y489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
       </c>
       <c r="R486" s="2" t="inlineStr"/>
     </row>
-    <row r="487">
+    <row r="487" ht="15" customHeight="1">
       <c r="A487" t="inlineStr">
         <is>
           <t>A 43649-2023</t>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30044,6 +30044,120 @@
         <v>0</v>
       </c>
       <c r="R487" s="2" t="inlineStr"/>
+    </row>
+    <row r="488" ht="15" customHeight="1">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>A 44372-2023</t>
+        </is>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C488" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>ROBERTSFORS</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N488" t="n">
+        <v>0</v>
+      </c>
+      <c r="O488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R488" s="2" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>A 44374-2023</t>
+        </is>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C489" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>ROBERTSFORS</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N489" t="n">
+        <v>0</v>
+      </c>
+      <c r="O489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R489" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y489"/>
+  <dimension ref="A1:Y490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="R488" s="2" t="inlineStr"/>
     </row>
-    <row r="489">
+    <row r="489" ht="15" customHeight="1">
       <c r="A489" t="inlineStr">
         <is>
           <t>A 44374-2023</t>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30158,6 +30158,63 @@
         <v>0</v>
       </c>
       <c r="R489" s="2" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>A 46888-2023</t>
+        </is>
+      </c>
+      <c r="B490" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C490" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>ROBERTSFORS</t>
+        </is>
+      </c>
+      <c r="G490" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N490" t="n">
+        <v>0</v>
+      </c>
+      <c r="O490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R490" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45201</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45201</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45201</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ROBERTSFORS.xlsx
+++ b/Översikt ROBERTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44163</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44984</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>43907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45147</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44091</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>43399</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44068</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43364</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43740</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43787</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44163</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>45091</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45153</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45168</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45182</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>43538</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44022</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>44163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44497</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44865</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44959</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45090</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>45098</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45182</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>45182</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43377</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43385</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43413</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43413</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43424</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43469</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43472</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43476</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43514</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43522</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43525</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43580</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43581</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43612</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43614</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43642</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43644</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43647</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43651</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43677</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43683</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43686</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43689</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43689</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43689</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43690</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43691</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43692</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43696</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43696</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43697</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43745</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43749</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43759</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43763</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43767</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43767</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>43767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>43769</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>43780</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>43784</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43784</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43795</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43795</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43797</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43801</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43812</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43816</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43843</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>43861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43864</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43866</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43896</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43901</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43916</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43917</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43951</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43951</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43966</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43979</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43985</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44006</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44013</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44013</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44014</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44025</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44029</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>44036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>44036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44050</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44050</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>44055</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44057</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44060</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44075</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44078</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44084</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44089</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44102</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44106</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44106</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44110</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44116</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44116</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44122</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44122</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44123</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44124</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44132</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44132</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44137</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44137</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44140</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44163</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44165</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44167</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>44183</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44186</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44187</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44194</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44200</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44209</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44214</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44214</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44216</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44236</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44242</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>44245</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44263</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>44277</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44277</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44307</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44314</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44331</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>44339</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>44340</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>44377</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>44377</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>44377</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44379</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44384</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>44386</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44386</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44413</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44435</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44435</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44435</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44455</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44473</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44473</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44475</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44475</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44476</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44487</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44488</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44497</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44524</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44531</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44532</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44535</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44571</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44571</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>44571</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44574</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>44575</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44580</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>44580</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>44580</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>44580</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44580</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>44588</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         <v>44588</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44612</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44622</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44641</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44641</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44644</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>44645</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>44658</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>44677</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>44683</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>44697</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44697</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44725</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44732</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44732</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44735</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44774</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44774</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44774</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44775</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44781</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44781</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44783</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44789</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44790</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44795</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44797</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44798</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44810</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44812</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44824</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44839</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44844</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44844</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44846</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44853</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44853</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44855</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44865</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44868</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44876</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44880</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44883</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>44895</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>44896</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>44900</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44901</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>44901</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44904</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44911</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44914</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44919</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44930</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>44936</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44938</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44938</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>44951</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44951</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44952</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44960</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44960</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44973</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44977</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44980</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45002</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45002</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45005</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45005</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45007</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45008</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45009</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45013</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45013</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45013</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45019</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45020</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45020</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45029</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45033</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45040</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45041</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45042</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45042</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45042</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45042</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45042</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45048</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45048</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45049</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45051</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>45063</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45069</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45070</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45075</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45075</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45076</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45076</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45076</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45076</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45079</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45079</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45079</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45082</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45084</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45089</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45089</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45090</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45090</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45090</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45090</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45090</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45091</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45106</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45108</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45120</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>45124</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>45124</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45131</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45133</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45135</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45153</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45153</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>45160</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45160</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45160</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45160</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45160</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45162</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45162</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45162</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45163</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45166</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45182</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45187</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45187</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45188</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45188</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45201</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
